--- a/XinTongYuan_SatelliteCar/Assets/StreamingAssets/卫星年份数量.xlsx
+++ b/XinTongYuan_SatelliteCar/Assets/StreamingAssets/卫星年份数量.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1244,19 +1244,19 @@
         <v>1978</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -1264,7 +1264,7 @@
         <v>1979</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1284,7 +1284,7 @@
         <v>1980</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -1304,7 +1304,7 @@
         <v>1981</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
